--- a/Optimism Data.xlsx
+++ b/Optimism Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{421CDED9-B0AB-4693-9A9C-8968CE16138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBE766BF-4F78-4294-91B7-B97F0319BB79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="27580" windowHeight="17740" xr2:uid="{A93E41C6-51FA-48B9-83BE-F998D720085E}"/>
   </bookViews>
@@ -71,8 +71,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;£&quot;* #,##0.000000_-;\-&quot;£&quot;* #,##0.000000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;£&quot;* #,##0.000000_-;\-&quot;£&quot;* #,##0.000000_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,7 +156,7 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -169,12 +169,13 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -193,7 +194,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -217,7 +217,83 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
       <font>
@@ -259,8 +335,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -279,82 +353,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="166" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -404,7 +404,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Monthly Actual + Forecast</a:t>
+              <a:t>Forecast</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -459,7 +459,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimism Data'!$C$1</c:f>
+              <c:f>'Optimism Data'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -482,12 +482,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Optimism Data'!$C$2:$C$29</c:f>
+              <c:f>'Optimism Data'!$D$3:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>7000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9000</c:v>
@@ -585,7 +585,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimism Data'!$D$1</c:f>
+              <c:f>'Optimism Data'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -608,18 +608,18 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Optimism Data'!$D$2:$D$29</c:f>
+              <c:f>'Optimism Data'!$E$3:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>9000</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>12000</c:v>
@@ -702,7 +702,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-51E7-457A-9EA2-271DEB4FFFCE}"/>
+              <c16:uniqueId val="{0000000C-51E7-457A-9EA2-271DEB4FFFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -711,7 +711,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimism Data'!$E$1</c:f>
+              <c:f>'Optimism Data'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -734,21 +734,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Optimism Data'!$E$2:$E$29</c:f>
+              <c:f>'Optimism Data'!$F$3:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5500</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7000</c:v>
+                  <c:v>8500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10000</c:v>
+                  <c:v>11000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>16000</c:v>
@@ -828,7 +828,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-51E7-457A-9EA2-271DEB4FFFCE}"/>
+              <c16:uniqueId val="{0000000D-51E7-457A-9EA2-271DEB4FFFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -837,7 +837,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimism Data'!$F$1</c:f>
+              <c:f>'Optimism Data'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -860,21 +860,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Optimism Data'!$F$2:$F$29</c:f>
+              <c:f>'Optimism Data'!$G$3:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5500</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14000</c:v>
@@ -954,7 +954,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-51E7-457A-9EA2-271DEB4FFFCE}"/>
+              <c16:uniqueId val="{0000000E-51E7-457A-9EA2-271DEB4FFFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -963,7 +963,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Optimism Data'!$G$1</c:f>
+              <c:f>'Optimism Data'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -986,21 +986,21 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Optimism Data'!$G$2:$G$29</c:f>
+              <c:f>'Optimism Data'!$H$3:$H$30</c:f>
               <c:numCache>
                 <c:formatCode>_-"£"* #,##0_-;\-"£"* #,##0_-;_-"£"* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="28"/>
                 <c:pt idx="0">
-                  <c:v>5000</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5500</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6000</c:v>
+                  <c:v>7200</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7500</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>11000</c:v>
@@ -1072,7 +1072,7 @@
                   <c:v>10263.15789473684</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8263.1578947368416</c:v>
+                  <c:v>6200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1080,7 +1080,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-51E7-457A-9EA2-271DEB4FFFCE}"/>
+              <c16:uniqueId val="{0000000F-51E7-457A-9EA2-271DEB4FFFCE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1285,7 +1285,302 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Forecast Bias per month</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Optimism Data'!$C$3:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>45292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45383</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Optimism Data'!$K$3:$K$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0606060606060608E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.2802547770700632E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1111111111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EB6C-4175-882A-5BC71525703A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="981375743"/>
+        <c:axId val="1100937503"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="981375743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1100937503"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1100937503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="981375743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1841,20 +2136,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>53974</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>307974</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>279399</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>139699</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1879,12 +2690,48 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>20485</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>580375</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>94773</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{574DEC48-5059-9484-D28E-0C053CC0377B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26688EC3-469F-4485-9EC5-D0D352A7241F}" name="Table1" displayName="Table1" ref="A1:G29" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4" headerRowCellStyle="Currency" dataCellStyle="Currency">
-  <autoFilter ref="A1:G29" xr:uid="{26688EC3-469F-4485-9EC5-D0D352A7241F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{26688EC3-469F-4485-9EC5-D0D352A7241F}" name="Table1" displayName="Table1" ref="B2:H30" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowCellStyle="Currency" dataCellStyle="Currency">
+  <autoFilter ref="B2:H30" xr:uid="{26688EC3-469F-4485-9EC5-D0D352A7241F}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1894,13 +2741,13 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DECCAFC6-2A82-4185-B296-F3A5D31F4C53}" name="Period" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B81F44C4-444F-450B-A5E1-E9F853E0BA09}" name="Month" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="3" xr3:uid="{B7CB3975-4AE7-4EF6-9716-463AA878611E}" name="Baseline" dataDxfId="0" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{9D01B1C3-6252-4A54-A464-877DF7CADB00}" name="Jan-24" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{8DDD6FEE-5534-4147-BFE9-6532BAA63C3C}" name="Feb-24" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{43C9BBED-FABB-4F54-AEC2-4E018CD12402}" name="Mar-24" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{864A3DB6-3D42-4B75-B4AF-98C7ED705F24}" name="Apr-24" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="1" xr3:uid="{DECCAFC6-2A82-4185-B296-F3A5D31F4C53}" name="Period" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{B81F44C4-444F-450B-A5E1-E9F853E0BA09}" name="Month" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="3" xr3:uid="{B7CB3975-4AE7-4EF6-9716-463AA878611E}" name="Baseline" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{9D01B1C3-6252-4A54-A464-877DF7CADB00}" name="Jan-24" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{8DDD6FEE-5534-4147-BFE9-6532BAA63C3C}" name="Feb-24" dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{43C9BBED-FABB-4F54-AEC2-4E018CD12402}" name="Mar-24" dataDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{864A3DB6-3D42-4B75-B4AF-98C7ED705F24}" name="Apr-24" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2223,79 +3070,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06494FA7-C9D8-4CB4-9361-AEAECB01D377}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="93" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="7" width="11.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.36328125" style="7" customWidth="1"/>
-    <col min="9" max="12" width="8.7265625" style="7"/>
+    <col min="1" max="1" width="8.7265625" style="7"/>
+    <col min="2" max="3" width="11.54296875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" customWidth="1"/>
+    <col min="5" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="7" customWidth="1"/>
+    <col min="10" max="13" width="8.7265625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="2:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="2:11" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="3" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="C3" s="3">
         <v>45292</v>
-      </c>
-      <c r="C2" s="1">
-        <v>7000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E2" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F2" s="6">
-        <v>5000</v>
-      </c>
-      <c r="G2" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>45323</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9000</v>
       </c>
       <c r="D3" s="1">
         <v>6000</v>
@@ -2309,694 +3136,739 @@
       <c r="G3" s="6">
         <v>5500</v>
       </c>
-      <c r="H3" s="11"/>
+      <c r="H3" s="6">
+        <v>5500</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7">
+        <f>(D3-E3)/(D3+E3)</f>
+        <v>4.3478260869565216E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>45352</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13000</v>
+    <row r="4" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>45323</v>
       </c>
       <c r="D4" s="1">
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E4" s="1">
         <v>7000</v>
       </c>
       <c r="F4" s="6">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G4" s="6">
-        <v>6000</v>
-      </c>
-      <c r="H4" s="11"/>
+        <v>6200</v>
+      </c>
+      <c r="H4" s="6">
+        <v>6200</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="K4" s="7">
+        <f>(E4-F4)/(E4+F4)</f>
+        <v>6.0606060606060608E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45352</v>
+      </c>
+      <c r="D5" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E5" s="1">
+        <v>9000</v>
+      </c>
+      <c r="F5" s="1">
+        <v>8500</v>
+      </c>
+      <c r="G5" s="6">
+        <v>7200</v>
+      </c>
+      <c r="H5" s="6">
+        <v>7200</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="K5" s="7">
+        <f>(F5-G5)/(F5+G5)</f>
+        <v>8.2802547770700632E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="3">
         <v>45383</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>17000</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>12000</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
+        <v>11000</v>
+      </c>
+      <c r="G6" s="1">
         <v>10000</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H6" s="6">
         <v>8000</v>
       </c>
-      <c r="G5" s="6">
-        <v>7500</v>
-      </c>
-      <c r="H5" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="K6" s="7">
+        <f>(G6-H6)/(G6+H6)</f>
+        <v>0.1111111111111111</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+    <row r="7" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C7" s="3">
         <v>45413</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="1">
         <v>22000</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>18000</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>16000</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>14000</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>11000</v>
       </c>
-      <c r="H6" s="11"/>
+      <c r="I7" s="14" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+    <row r="8" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C8" s="3">
         <v>45444</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>28000</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>26000</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>24000</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>21000</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="1">
         <v>17000</v>
       </c>
-      <c r="H7" s="11"/>
+      <c r="I8" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+    <row r="9" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C9" s="3">
         <v>45474</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D9" s="1">
         <v>34000</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E9" s="1">
         <v>34954.545454545456</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
         <v>34000</v>
       </c>
-      <c r="F8" s="1">
+      <c r="G9" s="1">
         <v>28000</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H9" s="1">
         <v>25000</v>
       </c>
-      <c r="H8" s="11"/>
+      <c r="I9" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+    <row r="10" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C10" s="3">
         <v>45505</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D10" s="1">
         <v>41000</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E10" s="1">
         <v>41954.545454545456</v>
       </c>
-      <c r="E9" s="1">
+      <c r="F10" s="1">
         <v>42357.142857142855</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G10" s="1">
         <v>37000</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H10" s="1">
         <v>34000</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="I10" s="15"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+    <row r="11" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C11" s="3">
         <v>45536</v>
       </c>
-      <c r="C10" s="1">
+      <c r="D11" s="1">
         <v>47000</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E11" s="1">
         <v>47954.545454545456</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F11" s="1">
         <v>48357.142857142855</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G11" s="1">
         <v>49325</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H11" s="1">
         <v>45000</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="I11" s="15"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+    <row r="12" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C12" s="3">
         <v>45566</v>
       </c>
-      <c r="C11" s="1">
+      <c r="D12" s="1">
         <v>54000</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E12" s="1">
         <v>54954.545454545456</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F12" s="1">
         <v>55357.142857142855</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G12" s="1">
         <v>56325</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H12" s="1">
         <v>57263.15789473684</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="I12" s="15"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+    <row r="13" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C13" s="3">
         <v>45597</v>
       </c>
-      <c r="C12" s="1">
+      <c r="D13" s="1">
         <v>59000</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E13" s="1">
         <v>59954.545454545456</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F13" s="1">
         <v>60357.142857142855</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G13" s="1">
         <v>61325</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H13" s="1">
         <v>62263.15789473684</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="I13" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+    <row r="14" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C14" s="3">
         <v>45627</v>
       </c>
-      <c r="C13" s="1">
+      <c r="D14" s="1">
         <v>63000</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E14" s="1">
         <v>63954.545454545456</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F14" s="1">
         <v>64357.142857142855</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G14" s="1">
         <v>65325</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H14" s="1">
         <v>66263.15789473684</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="I14" s="15"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+    <row r="15" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C15" s="3">
         <v>45658</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D15" s="1">
         <v>66000</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E15" s="1">
         <v>66954.545454545456</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F15" s="1">
         <v>67357.142857142855</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G15" s="1">
         <v>68325</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H15" s="1">
         <v>69263.15789473684</v>
       </c>
-      <c r="H14" s="14"/>
+      <c r="I15" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+    <row r="16" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C16" s="3">
         <v>45689</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D16" s="1">
         <v>67000</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E16" s="1">
         <v>67954.545454545456</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F16" s="1">
         <v>68357.142857142855</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G16" s="1">
         <v>69325</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H16" s="1">
         <v>70263.15789473684</v>
       </c>
-      <c r="H15" s="14"/>
+      <c r="I16" s="15"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+    <row r="17" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C17" s="3">
         <v>45717</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D17" s="1">
         <v>66000</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E17" s="1">
         <v>66954.545454545456</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F17" s="1">
         <v>67357.142857142855</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G17" s="1">
         <v>68325</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H17" s="1">
         <v>69263.15789473684</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="I17" s="15"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+    <row r="18" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C18" s="3">
         <v>45748</v>
       </c>
-      <c r="C17" s="1">
+      <c r="D18" s="1">
         <v>63000</v>
       </c>
-      <c r="D17" s="1">
+      <c r="E18" s="1">
         <v>63954.545454545456</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F18" s="1">
         <v>64357.142857142855</v>
       </c>
-      <c r="F17" s="1">
+      <c r="G18" s="1">
         <v>65325</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H18" s="1">
         <v>66263.15789473684</v>
       </c>
-      <c r="H17" s="14"/>
+      <c r="I18" s="15"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+    <row r="19" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C19" s="3">
         <v>45778</v>
       </c>
-      <c r="C18" s="1">
+      <c r="D19" s="1">
         <v>59000</v>
       </c>
-      <c r="D18" s="1">
+      <c r="E19" s="1">
         <v>59954.545454545456</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F19" s="1">
         <v>60357.142857142855</v>
       </c>
-      <c r="F18" s="1">
+      <c r="G19" s="1">
         <v>61325</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H19" s="1">
         <v>62263.15789473684</v>
       </c>
-      <c r="H18" s="14"/>
+      <c r="I19" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+    <row r="20" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C20" s="3">
         <v>45809</v>
       </c>
-      <c r="C19" s="1">
+      <c r="D20" s="1">
         <v>54000</v>
       </c>
-      <c r="D19" s="1">
+      <c r="E20" s="1">
         <v>54954.545454545456</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F20" s="1">
         <v>55357.142857142855</v>
       </c>
-      <c r="F19" s="1">
+      <c r="G20" s="1">
         <v>56325</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H20" s="1">
         <v>57263.15789473684</v>
       </c>
-      <c r="H19" s="14"/>
+      <c r="I20" s="15"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+    <row r="21" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C21" s="3">
         <v>45839</v>
       </c>
-      <c r="C20" s="1">
+      <c r="D21" s="1">
         <v>47000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="E21" s="1">
         <v>47954.545454545456</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F21" s="1">
         <v>48357.142857142855</v>
       </c>
-      <c r="F20" s="1">
+      <c r="G21" s="1">
         <v>49325</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H21" s="1">
         <v>50263.15789473684</v>
       </c>
-      <c r="H20" s="14"/>
+      <c r="I21" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+    <row r="22" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C22" s="3">
         <v>45870</v>
       </c>
-      <c r="C21" s="1">
+      <c r="D22" s="1">
         <v>41000</v>
       </c>
-      <c r="D21" s="1">
+      <c r="E22" s="1">
         <v>41954.545454545456</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F22" s="1">
         <v>42357.142857142855</v>
       </c>
-      <c r="F21" s="1">
+      <c r="G22" s="1">
         <v>43325</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H22" s="1">
         <v>44263.15789473684</v>
       </c>
-      <c r="H21" s="14"/>
+      <c r="I22" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+    <row r="23" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C23" s="3">
         <v>45901</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D23" s="1">
         <v>34000</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E23" s="1">
         <v>34954.545454545456</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F23" s="1">
         <v>35357.142857142855</v>
       </c>
-      <c r="F22" s="1">
+      <c r="G23" s="1">
         <v>36325</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H23" s="1">
         <v>37263.15789473684</v>
       </c>
-      <c r="H22" s="14"/>
+      <c r="I23" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+    <row r="24" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C24" s="3">
         <v>45931</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D24" s="1">
         <v>28000</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E24" s="1">
         <v>28954.545454545456</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F24" s="1">
         <v>29357.142857142859</v>
       </c>
-      <c r="F23" s="1">
+      <c r="G24" s="1">
         <v>30325</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H24" s="1">
         <v>31263.157894736843</v>
       </c>
-      <c r="H23" s="14"/>
+      <c r="I24" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+    <row r="25" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C25" s="3">
         <v>45962</v>
       </c>
-      <c r="C24" s="1">
+      <c r="D25" s="1">
         <v>22000</v>
       </c>
-      <c r="D24" s="1">
+      <c r="E25" s="1">
         <v>22954.545454545456</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F25" s="1">
         <v>23357.142857142859</v>
       </c>
-      <c r="F24" s="1">
+      <c r="G25" s="1">
         <v>24325</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H25" s="1">
         <v>25263.157894736843</v>
       </c>
-      <c r="H24" s="14"/>
+      <c r="I25" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+    <row r="26" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C26" s="3">
         <v>45992</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D26" s="1">
         <v>17000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E26" s="1">
         <v>17954.545454545456</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F26" s="1">
         <v>18357.142857142859</v>
       </c>
-      <c r="F25" s="1">
+      <c r="G26" s="1">
         <v>19325</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H26" s="1">
         <v>20263.157894736843</v>
       </c>
-      <c r="H25" s="14"/>
+      <c r="I26" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+    <row r="27" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C27" s="3">
         <v>46023</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D27" s="1">
         <v>13000</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E27" s="1">
         <v>13954.545454545454</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F27" s="1">
         <v>14357.142857142857</v>
       </c>
-      <c r="F26" s="1">
+      <c r="G27" s="1">
         <v>15324.999999999998</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H27" s="1">
         <v>16263.15789473684</v>
       </c>
-      <c r="H26" s="14"/>
+      <c r="I27" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+    <row r="28" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C28" s="3">
         <v>46054</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D28" s="1">
         <v>9000</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E28" s="1">
         <v>9954.545454545454</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F28" s="1">
         <v>10357.142857142857</v>
       </c>
-      <c r="F27" s="1">
+      <c r="G28" s="1">
         <v>11324.999999999998</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H28" s="1">
         <v>12263.15789473684</v>
       </c>
-      <c r="H27" s="14"/>
+      <c r="I28" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+    <row r="29" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C29" s="3">
         <v>46082</v>
       </c>
-      <c r="C28" s="1">
+      <c r="D29" s="1">
         <v>7000</v>
       </c>
-      <c r="D28" s="1">
+      <c r="E29" s="1">
         <v>7954.545454545454</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F29" s="1">
         <v>8357.1428571428569</v>
       </c>
-      <c r="F28" s="1">
+      <c r="G29" s="1">
         <v>9324.9999999999982</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H29" s="1">
         <v>10263.15789473684</v>
       </c>
-      <c r="H28" s="14"/>
+      <c r="I29" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+    <row r="30" spans="2:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C30" s="3">
         <v>46113</v>
       </c>
-      <c r="C29" s="1">
+      <c r="D30" s="1">
         <v>5000</v>
       </c>
-      <c r="D29" s="1">
+      <c r="E30" s="1">
         <v>5954.545454545454</v>
       </c>
-      <c r="E29" s="1">
+      <c r="F30" s="1">
         <v>6357.1428571428569</v>
       </c>
-      <c r="F29" s="1">
+      <c r="G30" s="1">
         <v>7324.9999999999991</v>
       </c>
-      <c r="G29" s="1">
-        <v>8263.1578947368416</v>
-      </c>
-      <c r="H29" s="15"/>
+      <c r="H30" s="1">
+        <v>6200</v>
+      </c>
+      <c r="I30" s="16"/>
     </row>
-    <row r="30" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-    </row>
-    <row r="31" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="9"/>
+    <row r="31" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="9"/>
-      <c r="D31" s="8"/>
+      <c r="C31" s="9"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="9"/>
+    <row r="32" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
-      <c r="D32" s="8"/>
+      <c r="C32" s="9"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-      <c r="G32" s="16"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="9"/>
+    <row r="33" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
-      <c r="D33" s="8"/>
+      <c r="C33" s="9"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="16"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="10"/>
     </row>
-    <row r="34" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="9"/>
+    <row r="34" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B34" s="9"/>
-      <c r="D34" s="8"/>
+      <c r="C34" s="9"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="16"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="9"/>
+    <row r="35" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B35" s="9"/>
-      <c r="D35" s="8"/>
+      <c r="C35" s="9"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
-      <c r="G35" s="16"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="10"/>
     </row>
-    <row r="36" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9"/>
+    <row r="36" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B36" s="9"/>
-      <c r="D36" s="8"/>
+      <c r="C36" s="9"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="2:8" s="7" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="H10:H29"/>
+    <mergeCell ref="I7:I30"/>
+    <mergeCell ref="I3:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
